--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>591933.0234878624</v>
+        <v>596144.9812592331</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573493.4371019268</v>
+      </c>
+      <c r="C2" t="n">
+        <v>573493.437101927</v>
+      </c>
+      <c r="D2" t="n">
         <v>573493.4371019269</v>
-      </c>
-      <c r="C2" t="n">
-        <v>573493.4371019268</v>
-      </c>
-      <c r="D2" t="n">
-        <v>573493.437101927</v>
       </c>
       <c r="E2" t="n">
         <v>160048.7674098091</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76021.50397221398</v>
+        <v>76715.10599981702</v>
       </c>
       <c r="C6" t="n">
-        <v>76021.5039722138</v>
+        <v>76715.10599981726</v>
       </c>
       <c r="D6" t="n">
-        <v>76021.50397221409</v>
+        <v>76715.10599981714</v>
       </c>
       <c r="E6" t="n">
-        <v>-47154.26081871878</v>
+        <v>-46743.228699159</v>
       </c>
       <c r="F6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="G6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="H6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="I6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="J6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="K6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="L6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="M6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="N6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="O6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
       <c r="P6" t="n">
-        <v>85945.73918128129</v>
+        <v>86356.77130084101</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>596144.9812592331</v>
+        <v>609871.3393966513</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="D2" t="n">
         <v>573493.4371019269</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76715.10599981702</v>
+        <v>76715.10599981711</v>
       </c>
       <c r="C6" t="n">
-        <v>76715.10599981726</v>
+        <v>76715.10599981711</v>
       </c>
       <c r="D6" t="n">
-        <v>76715.10599981714</v>
+        <v>76715.10599981711</v>
       </c>
       <c r="E6" t="n">
-        <v>-46743.228699159</v>
+        <v>-46743.22869915904</v>
       </c>
       <c r="F6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="G6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="H6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="I6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="J6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="K6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="L6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="M6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="N6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="O6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
       <c r="P6" t="n">
-        <v>86356.77130084101</v>
+        <v>86356.77130084102</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>609871.3393966513</v>
+        <v>526085.9376350266</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="D2" t="n">
         <v>573493.4371019269</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76715.10599981711</v>
+        <v>76670.9702211361</v>
       </c>
       <c r="C6" t="n">
-        <v>76715.10599981711</v>
+        <v>76670.9702211361</v>
       </c>
       <c r="D6" t="n">
-        <v>76715.10599981711</v>
+        <v>76670.97022113598</v>
       </c>
       <c r="E6" t="n">
-        <v>-46743.22869915904</v>
+        <v>-61553.24553827292</v>
       </c>
       <c r="F6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="G6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="H6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="I6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="J6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="K6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="L6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="M6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="N6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="O6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
       <c r="P6" t="n">
-        <v>86356.77130084102</v>
+        <v>71546.75446172715</v>
       </c>
     </row>
   </sheetData>
